--- a/ITProjectManagement/AgilePM/Templates/AnodiamSpreadsheetTemplate.xlsx
+++ b/ITProjectManagement/AgilePM/Templates/AnodiamSpreadsheetTemplate.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\ITProjectManagement\AgilePM\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
@@ -15,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Anodiam</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Spreadsheet Name</t>
   </si>
@@ -51,13 +53,19 @@
   </si>
   <si>
     <t>Specific Info</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Logo Updated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,13 +179,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1027338</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>805239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="0"/>
+          <a:ext cx="2484663" cy="805239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,17 +445,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
@@ -396,80 +464,86 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="12">
+        <v>44386</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -483,11 +557,12 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -495,7 +570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
